--- a/Assets/Resources/StageExcel.xlsx
+++ b/Assets/Resources/StageExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotat\OneDrive\デスクトップ\GCP\DecoBom\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDADD8D8-E7F7-4B15-91A7-782742B69C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382F3A1B-459F-4063-A693-9EDB857556A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BFD5159B-574D-4488-8CB0-0E45BBC8CA5A}"/>
   </bookViews>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,7 +452,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -877,7 +873,7 @@
         <v>10</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <v>10</v>
@@ -895,7 +891,7 @@
         <v>10</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O7">
         <v>10</v>
@@ -939,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -963,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1069,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1093,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1264,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1288,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1459,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1483,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1589,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1613,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1657,7 +1653,7 @@
         <v>10</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I19">
         <v>10</v>
@@ -1675,7 +1671,7 @@
         <v>10</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O19">
         <v>10</v>

--- a/Assets/Resources/StageExcel.xlsx
+++ b/Assets/Resources/StageExcel.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotat\OneDrive\デスクトップ\GCP\DecoBom\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382F3A1B-459F-4063-A693-9EDB857556A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45917671-245F-4E4F-9EFD-DBC4C6697E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BFD5159B-574D-4488-8CB0-0E45BBC8CA5A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1AEF912E-AD76-439A-9847-D359AAF86FF7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Stage1" sheetId="1" r:id="rId1"/>
+    <sheet name="stage1" sheetId="3" r:id="rId1"/>
+    <sheet name="stage2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,7 +85,63 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -115,12 +172,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFFFFCC"/>
-      <color rgb="FFFFCC99"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -448,39 +499,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13ABE3CF-C629-4DFB-BB85-552921D7C085}">
-  <dimension ref="A1:U25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B4B7A3-2A67-49C0-8CF3-3D0110D1C797}">
+  <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" zoomScale="33" workbookViewId="0">
+      <selection activeCell="AD48" sqref="AD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="21" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="17" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="24" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="41" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H1">
         <v>10</v>
@@ -504,220 +558,220 @@
         <v>10</v>
       </c>
       <c r="O1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="P1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Q1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="R1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="S1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="U1">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U2">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="M3">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U3">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U4">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
@@ -725,61 +779,61 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I5">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="K5">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M5">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S5">
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U5">
         <v>10</v>
@@ -796,13 +850,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -864,16 +918,16 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>10</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>10</v>
@@ -882,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -891,7 +945,7 @@
         <v>10</v>
       </c>
       <c r="N7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>10</v>
@@ -900,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -923,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -959,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -994,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1006,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1030,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1065,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1089,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1124,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1136,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1160,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1254,43 +1308,43 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1384,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1393,25 +1447,25 @@
         <v>10</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O15">
         <v>10</v>
@@ -1420,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1514,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1550,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -1644,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1653,10 +1707,10 @@
         <v>10</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1668,10 +1722,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>10</v>
@@ -1680,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -1715,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1739,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1774,43 +1828,43 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -1845,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1869,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1916,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1972,13 +2026,13 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1996,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -2025,79 +2079,7815 @@
         <v>10</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q25">
         <v>10</v>
       </c>
       <c r="R25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S25">
         <v>10</v>
       </c>
       <c r="T25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U25">
         <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>20</v>
+      </c>
+      <c r="O26">
+        <v>20</v>
+      </c>
+      <c r="P26">
+        <v>20</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>10</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>10</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>10</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>10</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>10</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>10</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>10</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>10</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>10</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>10</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>10</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>10</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>10</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>10</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>10</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>10</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35">
+        <v>20</v>
+      </c>
+      <c r="K35">
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <v>20</v>
+      </c>
+      <c r="M35">
+        <v>10</v>
+      </c>
+      <c r="N35">
+        <v>10</v>
+      </c>
+      <c r="O35">
+        <v>10</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>10</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>10</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>10</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>10</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>10</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>10</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>10</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>10</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>10</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>10</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>10</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>10</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>10</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>10</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>10</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>10</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>10</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>10</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>10</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>10</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>10</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>10</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>10</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>10</v>
+      </c>
+      <c r="I45">
+        <v>95</v>
+      </c>
+      <c r="J45">
+        <v>95</v>
+      </c>
+      <c r="K45">
+        <v>95</v>
+      </c>
+      <c r="L45">
+        <v>95</v>
+      </c>
+      <c r="M45">
+        <v>95</v>
+      </c>
+      <c r="N45">
+        <v>10</v>
+      </c>
+      <c r="O45">
+        <v>10</v>
+      </c>
+      <c r="P45">
+        <v>10</v>
+      </c>
+      <c r="Q45">
+        <v>10</v>
+      </c>
+      <c r="R45">
+        <v>10</v>
+      </c>
+      <c r="S45">
+        <v>10</v>
+      </c>
+      <c r="T45">
+        <v>10</v>
+      </c>
+      <c r="U45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>100</v>
+      </c>
+      <c r="B46">
+        <v>100</v>
+      </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="D46">
+        <v>100</v>
+      </c>
+      <c r="E46">
+        <v>100</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="H46">
+        <v>10</v>
+      </c>
+      <c r="I46">
+        <v>99</v>
+      </c>
+      <c r="J46">
+        <v>99</v>
+      </c>
+      <c r="K46">
+        <v>99</v>
+      </c>
+      <c r="L46">
+        <v>99</v>
+      </c>
+      <c r="M46">
+        <v>99</v>
+      </c>
+      <c r="N46">
+        <v>10</v>
+      </c>
+      <c r="O46">
+        <v>100</v>
+      </c>
+      <c r="P46">
+        <v>100</v>
+      </c>
+      <c r="Q46">
+        <v>100</v>
+      </c>
+      <c r="R46">
+        <v>100</v>
+      </c>
+      <c r="S46">
+        <v>100</v>
+      </c>
+      <c r="T46">
+        <v>100</v>
+      </c>
+      <c r="U46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>100</v>
+      </c>
+      <c r="B47">
+        <v>100</v>
+      </c>
+      <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
+      </c>
+      <c r="E47">
+        <v>100</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
+      </c>
+      <c r="I47">
+        <v>99</v>
+      </c>
+      <c r="J47">
+        <v>93</v>
+      </c>
+      <c r="K47">
+        <v>99</v>
+      </c>
+      <c r="L47">
+        <v>94</v>
+      </c>
+      <c r="M47">
+        <v>99</v>
+      </c>
+      <c r="N47">
+        <v>10</v>
+      </c>
+      <c r="O47">
+        <v>100</v>
+      </c>
+      <c r="P47">
+        <v>100</v>
+      </c>
+      <c r="Q47">
+        <v>100</v>
+      </c>
+      <c r="R47">
+        <v>100</v>
+      </c>
+      <c r="S47">
+        <v>100</v>
+      </c>
+      <c r="T47">
+        <v>100</v>
+      </c>
+      <c r="U47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>100</v>
+      </c>
+      <c r="B48">
+        <v>100</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+      <c r="E48">
+        <v>100</v>
+      </c>
+      <c r="F48">
+        <v>100</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+      <c r="H48">
+        <v>10</v>
+      </c>
+      <c r="I48">
+        <v>99</v>
+      </c>
+      <c r="J48">
+        <v>99</v>
+      </c>
+      <c r="K48">
+        <v>99</v>
+      </c>
+      <c r="L48">
+        <v>99</v>
+      </c>
+      <c r="M48">
+        <v>99</v>
+      </c>
+      <c r="N48">
+        <v>10</v>
+      </c>
+      <c r="O48">
+        <v>100</v>
+      </c>
+      <c r="P48">
+        <v>100</v>
+      </c>
+      <c r="Q48">
+        <v>100</v>
+      </c>
+      <c r="R48">
+        <v>100</v>
+      </c>
+      <c r="S48">
+        <v>100</v>
+      </c>
+      <c r="T48">
+        <v>100</v>
+      </c>
+      <c r="U48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>100</v>
+      </c>
+      <c r="B49">
+        <v>100</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+      <c r="D49">
+        <v>100</v>
+      </c>
+      <c r="E49">
+        <v>100</v>
+      </c>
+      <c r="F49">
+        <v>100</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+      <c r="H49">
+        <v>10</v>
+      </c>
+      <c r="I49">
+        <v>10</v>
+      </c>
+      <c r="J49">
+        <v>10</v>
+      </c>
+      <c r="K49">
+        <v>10</v>
+      </c>
+      <c r="L49">
+        <v>10</v>
+      </c>
+      <c r="M49">
+        <v>10</v>
+      </c>
+      <c r="N49">
+        <v>10</v>
+      </c>
+      <c r="O49">
+        <v>100</v>
+      </c>
+      <c r="P49">
+        <v>100</v>
+      </c>
+      <c r="Q49">
+        <v>100</v>
+      </c>
+      <c r="R49">
+        <v>100</v>
+      </c>
+      <c r="S49">
+        <v>100</v>
+      </c>
+      <c r="T49">
+        <v>100</v>
+      </c>
+      <c r="U49">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A1:G8 O1:U8 V1:XFD49 H2:N8 A9:U49 A50:XFD1048576">
+    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
+      <formula>A1=20</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
+      <formula>A1=11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+      <formula>A1=10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+      <formula>A1=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+      <formula>AND(A1&gt;=90, A1&lt;100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+      <formula>A1=100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA832E2E-F317-49D4-B89F-5814654F6E87}">
+  <dimension ref="A1:AO49"/>
+  <sheetViews>
+    <sheetView zoomScale="33" workbookViewId="0">
+      <selection activeCell="AS25" sqref="AS25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="17" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="24" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="41" width="5.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>100</v>
+      </c>
+      <c r="B1">
+        <v>100</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>100</v>
+      </c>
+      <c r="E1">
+        <v>100</v>
+      </c>
+      <c r="F1">
+        <v>100</v>
+      </c>
+      <c r="G1">
+        <v>100</v>
+      </c>
+      <c r="H1">
+        <v>100</v>
+      </c>
+      <c r="I1">
+        <v>100</v>
+      </c>
+      <c r="J1">
+        <v>100</v>
+      </c>
+      <c r="K1">
+        <v>100</v>
+      </c>
+      <c r="L1">
+        <v>100</v>
+      </c>
+      <c r="M1">
+        <v>100</v>
+      </c>
+      <c r="N1">
+        <v>100</v>
+      </c>
+      <c r="O1">
+        <v>100</v>
+      </c>
+      <c r="P1">
+        <v>100</v>
+      </c>
+      <c r="Q1">
+        <v>100</v>
+      </c>
+      <c r="R1">
+        <v>10</v>
+      </c>
+      <c r="S1">
+        <v>10</v>
+      </c>
+      <c r="T1">
+        <v>10</v>
+      </c>
+      <c r="U1">
+        <v>10</v>
+      </c>
+      <c r="V1">
+        <v>10</v>
+      </c>
+      <c r="W1">
+        <v>10</v>
+      </c>
+      <c r="X1">
+        <v>10</v>
+      </c>
+      <c r="Y1">
+        <v>100</v>
+      </c>
+      <c r="Z1">
+        <v>100</v>
+      </c>
+      <c r="AA1">
+        <v>100</v>
+      </c>
+      <c r="AB1">
+        <v>100</v>
+      </c>
+      <c r="AC1">
+        <v>100</v>
+      </c>
+      <c r="AD1">
+        <v>100</v>
+      </c>
+      <c r="AE1">
+        <v>100</v>
+      </c>
+      <c r="AF1">
+        <v>100</v>
+      </c>
+      <c r="AG1">
+        <v>100</v>
+      </c>
+      <c r="AH1">
+        <v>100</v>
+      </c>
+      <c r="AI1">
+        <v>100</v>
+      </c>
+      <c r="AJ1">
+        <v>100</v>
+      </c>
+      <c r="AK1">
+        <v>100</v>
+      </c>
+      <c r="AL1">
+        <v>100</v>
+      </c>
+      <c r="AM1">
+        <v>100</v>
+      </c>
+      <c r="AN1">
+        <v>100</v>
+      </c>
+      <c r="AO1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <v>100</v>
+      </c>
+      <c r="R2">
+        <v>10</v>
+      </c>
+      <c r="S2">
+        <v>99</v>
+      </c>
+      <c r="T2">
+        <v>99</v>
+      </c>
+      <c r="U2">
+        <v>99</v>
+      </c>
+      <c r="V2">
+        <v>99</v>
+      </c>
+      <c r="W2">
+        <v>99</v>
+      </c>
+      <c r="X2">
+        <v>10</v>
+      </c>
+      <c r="Y2">
+        <v>100</v>
+      </c>
+      <c r="Z2">
+        <v>100</v>
+      </c>
+      <c r="AA2">
+        <v>100</v>
+      </c>
+      <c r="AB2">
+        <v>100</v>
+      </c>
+      <c r="AC2">
+        <v>100</v>
+      </c>
+      <c r="AD2">
+        <v>100</v>
+      </c>
+      <c r="AE2">
+        <v>100</v>
+      </c>
+      <c r="AF2">
+        <v>100</v>
+      </c>
+      <c r="AG2">
+        <v>100</v>
+      </c>
+      <c r="AH2">
+        <v>100</v>
+      </c>
+      <c r="AI2">
+        <v>100</v>
+      </c>
+      <c r="AJ2">
+        <v>100</v>
+      </c>
+      <c r="AK2">
+        <v>100</v>
+      </c>
+      <c r="AL2">
+        <v>100</v>
+      </c>
+      <c r="AM2">
+        <v>100</v>
+      </c>
+      <c r="AN2">
+        <v>100</v>
+      </c>
+      <c r="AO2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <v>100</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>99</v>
+      </c>
+      <c r="T3">
+        <v>91</v>
+      </c>
+      <c r="U3">
+        <v>99</v>
+      </c>
+      <c r="V3">
+        <v>92</v>
+      </c>
+      <c r="W3">
+        <v>99</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <v>100</v>
+      </c>
+      <c r="Z3">
+        <v>100</v>
+      </c>
+      <c r="AA3">
+        <v>100</v>
+      </c>
+      <c r="AB3">
+        <v>100</v>
+      </c>
+      <c r="AC3">
+        <v>100</v>
+      </c>
+      <c r="AD3">
+        <v>100</v>
+      </c>
+      <c r="AE3">
+        <v>100</v>
+      </c>
+      <c r="AF3">
+        <v>100</v>
+      </c>
+      <c r="AG3">
+        <v>100</v>
+      </c>
+      <c r="AH3">
+        <v>100</v>
+      </c>
+      <c r="AI3">
+        <v>100</v>
+      </c>
+      <c r="AJ3">
+        <v>100</v>
+      </c>
+      <c r="AK3">
+        <v>100</v>
+      </c>
+      <c r="AL3">
+        <v>100</v>
+      </c>
+      <c r="AM3">
+        <v>100</v>
+      </c>
+      <c r="AN3">
+        <v>100</v>
+      </c>
+      <c r="AO3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <v>100</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>99</v>
+      </c>
+      <c r="T4">
+        <v>99</v>
+      </c>
+      <c r="U4">
+        <v>99</v>
+      </c>
+      <c r="V4">
+        <v>99</v>
+      </c>
+      <c r="W4">
+        <v>99</v>
+      </c>
+      <c r="X4">
+        <v>10</v>
+      </c>
+      <c r="Y4">
+        <v>100</v>
+      </c>
+      <c r="Z4">
+        <v>100</v>
+      </c>
+      <c r="AA4">
+        <v>100</v>
+      </c>
+      <c r="AB4">
+        <v>100</v>
+      </c>
+      <c r="AC4">
+        <v>100</v>
+      </c>
+      <c r="AD4">
+        <v>100</v>
+      </c>
+      <c r="AE4">
+        <v>100</v>
+      </c>
+      <c r="AF4">
+        <v>100</v>
+      </c>
+      <c r="AG4">
+        <v>100</v>
+      </c>
+      <c r="AH4">
+        <v>100</v>
+      </c>
+      <c r="AI4">
+        <v>100</v>
+      </c>
+      <c r="AJ4">
+        <v>100</v>
+      </c>
+      <c r="AK4">
+        <v>100</v>
+      </c>
+      <c r="AL4">
+        <v>100</v>
+      </c>
+      <c r="AM4">
+        <v>100</v>
+      </c>
+      <c r="AN4">
+        <v>100</v>
+      </c>
+      <c r="AO4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>95</v>
+      </c>
+      <c r="T5">
+        <v>95</v>
+      </c>
+      <c r="U5">
+        <v>95</v>
+      </c>
+      <c r="V5">
+        <v>95</v>
+      </c>
+      <c r="W5">
+        <v>95</v>
+      </c>
+      <c r="X5">
+        <v>10</v>
+      </c>
+      <c r="Y5">
+        <v>10</v>
+      </c>
+      <c r="Z5">
+        <v>10</v>
+      </c>
+      <c r="AA5">
+        <v>10</v>
+      </c>
+      <c r="AB5">
+        <v>10</v>
+      </c>
+      <c r="AC5">
+        <v>10</v>
+      </c>
+      <c r="AD5">
+        <v>10</v>
+      </c>
+      <c r="AE5">
+        <v>10</v>
+      </c>
+      <c r="AF5">
+        <v>100</v>
+      </c>
+      <c r="AG5">
+        <v>100</v>
+      </c>
+      <c r="AH5">
+        <v>100</v>
+      </c>
+      <c r="AI5">
+        <v>100</v>
+      </c>
+      <c r="AJ5">
+        <v>100</v>
+      </c>
+      <c r="AK5">
+        <v>100</v>
+      </c>
+      <c r="AL5">
+        <v>100</v>
+      </c>
+      <c r="AM5">
+        <v>100</v>
+      </c>
+      <c r="AN5">
+        <v>100</v>
+      </c>
+      <c r="AO5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>10</v>
+      </c>
+      <c r="AF6">
+        <v>100</v>
+      </c>
+      <c r="AG6">
+        <v>100</v>
+      </c>
+      <c r="AH6">
+        <v>100</v>
+      </c>
+      <c r="AI6">
+        <v>100</v>
+      </c>
+      <c r="AJ6">
+        <v>100</v>
+      </c>
+      <c r="AK6">
+        <v>100</v>
+      </c>
+      <c r="AL6">
+        <v>100</v>
+      </c>
+      <c r="AM6">
+        <v>100</v>
+      </c>
+      <c r="AN6">
+        <v>100</v>
+      </c>
+      <c r="AO6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>20</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>10</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>10</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>10</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>10</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>10</v>
+      </c>
+      <c r="AF7">
+        <v>100</v>
+      </c>
+      <c r="AG7">
+        <v>100</v>
+      </c>
+      <c r="AH7">
+        <v>100</v>
+      </c>
+      <c r="AI7">
+        <v>100</v>
+      </c>
+      <c r="AJ7">
+        <v>100</v>
+      </c>
+      <c r="AK7">
+        <v>100</v>
+      </c>
+      <c r="AL7">
+        <v>100</v>
+      </c>
+      <c r="AM7">
+        <v>100</v>
+      </c>
+      <c r="AN7">
+        <v>100</v>
+      </c>
+      <c r="AO7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>20</v>
+      </c>
+      <c r="N8">
+        <v>20</v>
+      </c>
+      <c r="O8">
+        <v>20</v>
+      </c>
+      <c r="P8">
+        <v>20</v>
+      </c>
+      <c r="Q8">
+        <v>20</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>10</v>
+      </c>
+      <c r="AF8">
+        <v>100</v>
+      </c>
+      <c r="AG8">
+        <v>100</v>
+      </c>
+      <c r="AH8">
+        <v>100</v>
+      </c>
+      <c r="AI8">
+        <v>100</v>
+      </c>
+      <c r="AJ8">
+        <v>100</v>
+      </c>
+      <c r="AK8">
+        <v>100</v>
+      </c>
+      <c r="AL8">
+        <v>100</v>
+      </c>
+      <c r="AM8">
+        <v>100</v>
+      </c>
+      <c r="AN8">
+        <v>100</v>
+      </c>
+      <c r="AO8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>10</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>10</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>10</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>10</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>10</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>10</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>10</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>10</v>
+      </c>
+      <c r="AF9">
+        <v>100</v>
+      </c>
+      <c r="AG9">
+        <v>100</v>
+      </c>
+      <c r="AH9">
+        <v>100</v>
+      </c>
+      <c r="AI9">
+        <v>100</v>
+      </c>
+      <c r="AJ9">
+        <v>100</v>
+      </c>
+      <c r="AK9">
+        <v>100</v>
+      </c>
+      <c r="AL9">
+        <v>100</v>
+      </c>
+      <c r="AM9">
+        <v>100</v>
+      </c>
+      <c r="AN9">
+        <v>100</v>
+      </c>
+      <c r="AO9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>10</v>
+      </c>
+      <c r="AF10">
+        <v>100</v>
+      </c>
+      <c r="AG10">
+        <v>100</v>
+      </c>
+      <c r="AH10">
+        <v>100</v>
+      </c>
+      <c r="AI10">
+        <v>100</v>
+      </c>
+      <c r="AJ10">
+        <v>100</v>
+      </c>
+      <c r="AK10">
+        <v>100</v>
+      </c>
+      <c r="AL10">
+        <v>100</v>
+      </c>
+      <c r="AM10">
+        <v>100</v>
+      </c>
+      <c r="AN10">
+        <v>100</v>
+      </c>
+      <c r="AO10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>10</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>10</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>10</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>10</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>10</v>
+      </c>
+      <c r="AF11">
+        <v>100</v>
+      </c>
+      <c r="AG11">
+        <v>100</v>
+      </c>
+      <c r="AH11">
+        <v>100</v>
+      </c>
+      <c r="AI11">
+        <v>100</v>
+      </c>
+      <c r="AJ11">
+        <v>100</v>
+      </c>
+      <c r="AK11">
+        <v>100</v>
+      </c>
+      <c r="AL11">
+        <v>100</v>
+      </c>
+      <c r="AM11">
+        <v>100</v>
+      </c>
+      <c r="AN11">
+        <v>100</v>
+      </c>
+      <c r="AO11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>10</v>
+      </c>
+      <c r="AF12">
+        <v>100</v>
+      </c>
+      <c r="AG12">
+        <v>100</v>
+      </c>
+      <c r="AH12">
+        <v>100</v>
+      </c>
+      <c r="AI12">
+        <v>100</v>
+      </c>
+      <c r="AJ12">
+        <v>100</v>
+      </c>
+      <c r="AK12">
+        <v>100</v>
+      </c>
+      <c r="AL12">
+        <v>100</v>
+      </c>
+      <c r="AM12">
+        <v>100</v>
+      </c>
+      <c r="AN12">
+        <v>100</v>
+      </c>
+      <c r="AO12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>10</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>10</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>10</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>10</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>10</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>10</v>
+      </c>
+      <c r="AF13">
+        <v>100</v>
+      </c>
+      <c r="AG13">
+        <v>100</v>
+      </c>
+      <c r="AH13">
+        <v>100</v>
+      </c>
+      <c r="AI13">
+        <v>100</v>
+      </c>
+      <c r="AJ13">
+        <v>100</v>
+      </c>
+      <c r="AK13">
+        <v>100</v>
+      </c>
+      <c r="AL13">
+        <v>100</v>
+      </c>
+      <c r="AM13">
+        <v>100</v>
+      </c>
+      <c r="AN13">
+        <v>100</v>
+      </c>
+      <c r="AO13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>10</v>
+      </c>
+      <c r="AF14">
+        <v>100</v>
+      </c>
+      <c r="AG14">
+        <v>100</v>
+      </c>
+      <c r="AH14">
+        <v>100</v>
+      </c>
+      <c r="AI14">
+        <v>100</v>
+      </c>
+      <c r="AJ14">
+        <v>100</v>
+      </c>
+      <c r="AK14">
+        <v>100</v>
+      </c>
+      <c r="AL14">
+        <v>100</v>
+      </c>
+      <c r="AM14">
+        <v>100</v>
+      </c>
+      <c r="AN14">
+        <v>100</v>
+      </c>
+      <c r="AO14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15">
+        <v>100</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>10</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <v>10</v>
+      </c>
+      <c r="S15">
+        <v>10</v>
+      </c>
+      <c r="T15">
+        <v>20</v>
+      </c>
+      <c r="U15">
+        <v>20</v>
+      </c>
+      <c r="V15">
+        <v>20</v>
+      </c>
+      <c r="W15">
+        <v>10</v>
+      </c>
+      <c r="X15">
+        <v>10</v>
+      </c>
+      <c r="Y15">
+        <v>10</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>10</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>10</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>10</v>
+      </c>
+      <c r="AF15">
+        <v>100</v>
+      </c>
+      <c r="AG15">
+        <v>100</v>
+      </c>
+      <c r="AH15">
+        <v>100</v>
+      </c>
+      <c r="AI15">
+        <v>100</v>
+      </c>
+      <c r="AJ15">
+        <v>100</v>
+      </c>
+      <c r="AK15">
+        <v>100</v>
+      </c>
+      <c r="AL15">
+        <v>100</v>
+      </c>
+      <c r="AM15">
+        <v>100</v>
+      </c>
+      <c r="AN15">
+        <v>100</v>
+      </c>
+      <c r="AO15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>100</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>100</v>
+      </c>
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>10</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>10</v>
+      </c>
+      <c r="AF16">
+        <v>100</v>
+      </c>
+      <c r="AG16">
+        <v>100</v>
+      </c>
+      <c r="AH16">
+        <v>100</v>
+      </c>
+      <c r="AI16">
+        <v>100</v>
+      </c>
+      <c r="AJ16">
+        <v>100</v>
+      </c>
+      <c r="AK16">
+        <v>100</v>
+      </c>
+      <c r="AL16">
+        <v>100</v>
+      </c>
+      <c r="AM16">
+        <v>100</v>
+      </c>
+      <c r="AN16">
+        <v>100</v>
+      </c>
+      <c r="AO16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>10</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>10</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>10</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>10</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>10</v>
+      </c>
+      <c r="AF17">
+        <v>10</v>
+      </c>
+      <c r="AG17">
+        <v>10</v>
+      </c>
+      <c r="AH17">
+        <v>10</v>
+      </c>
+      <c r="AI17">
+        <v>10</v>
+      </c>
+      <c r="AJ17">
+        <v>10</v>
+      </c>
+      <c r="AK17">
+        <v>10</v>
+      </c>
+      <c r="AL17">
+        <v>10</v>
+      </c>
+      <c r="AM17">
+        <v>10</v>
+      </c>
+      <c r="AN17">
+        <v>10</v>
+      </c>
+      <c r="AO17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>10</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>10</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>10</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>10</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>10</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>10</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>10</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>10</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>10</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>10</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>10</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>10</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>10</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>10</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>10</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>10</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>10</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>10</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>10</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>10</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>10</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>10</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>10</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>10</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>10</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>10</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>10</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>10</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>10</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>10</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>10</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>10</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>10</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>10</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>10</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>10</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>10</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>10</v>
+      </c>
+      <c r="AF23">
+        <v>10</v>
+      </c>
+      <c r="AG23">
+        <v>10</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>10</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>20</v>
+      </c>
+      <c r="Q24">
+        <v>20</v>
+      </c>
+      <c r="R24">
+        <v>20</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>20</v>
+      </c>
+      <c r="Y24">
+        <v>20</v>
+      </c>
+      <c r="Z24">
+        <v>20</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>20</v>
+      </c>
+      <c r="AF24">
+        <v>20</v>
+      </c>
+      <c r="AG24">
+        <v>20</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>20</v>
+      </c>
+      <c r="J25">
+        <v>20</v>
+      </c>
+      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>20</v>
+      </c>
+      <c r="Q25">
+        <v>20</v>
+      </c>
+      <c r="R25">
+        <v>20</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>20</v>
+      </c>
+      <c r="Y25">
+        <v>20</v>
+      </c>
+      <c r="Z25">
+        <v>20</v>
+      </c>
+      <c r="AA25">
+        <v>10</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>10</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>20</v>
+      </c>
+      <c r="AF25">
+        <v>20</v>
+      </c>
+      <c r="AG25">
+        <v>20</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>20</v>
+      </c>
+      <c r="J26">
+        <v>20</v>
+      </c>
+      <c r="K26">
+        <v>20</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>20</v>
+      </c>
+      <c r="Q26">
+        <v>20</v>
+      </c>
+      <c r="R26">
+        <v>20</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>20</v>
+      </c>
+      <c r="Y26">
+        <v>20</v>
+      </c>
+      <c r="Z26">
+        <v>20</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>20</v>
+      </c>
+      <c r="AF26">
+        <v>20</v>
+      </c>
+      <c r="AG26">
+        <v>20</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>10</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>10</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>10</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>10</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>10</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>10</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>10</v>
+      </c>
+      <c r="AF27">
+        <v>10</v>
+      </c>
+      <c r="AG27">
+        <v>10</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>10</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>10</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>10</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>10</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>10</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>10</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>10</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>10</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>10</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>10</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>10</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>10</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>10</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>10</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>10</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>10</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>10</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>10</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>10</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>10</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>10</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>10</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>10</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>10</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>10</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>10</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>10</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>10</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>10</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>10</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>10</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>10</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>10</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>10</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>10</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>10</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="K33">
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>10</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>10</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>10</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>10</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>10</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>10</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>10</v>
+      </c>
+      <c r="AF33">
+        <v>10</v>
+      </c>
+      <c r="AG33">
+        <v>10</v>
+      </c>
+      <c r="AH33">
+        <v>10</v>
+      </c>
+      <c r="AI33">
+        <v>10</v>
+      </c>
+      <c r="AJ33">
+        <v>10</v>
+      </c>
+      <c r="AK33">
+        <v>10</v>
+      </c>
+      <c r="AL33">
+        <v>10</v>
+      </c>
+      <c r="AM33">
+        <v>10</v>
+      </c>
+      <c r="AN33">
+        <v>10</v>
+      </c>
+      <c r="AO33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34">
+        <v>100</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+      <c r="I34">
+        <v>100</v>
+      </c>
+      <c r="J34">
+        <v>100</v>
+      </c>
+      <c r="K34">
+        <v>10</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>10</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>10</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>10</v>
+      </c>
+      <c r="AF34">
+        <v>100</v>
+      </c>
+      <c r="AG34">
+        <v>100</v>
+      </c>
+      <c r="AH34">
+        <v>100</v>
+      </c>
+      <c r="AI34">
+        <v>100</v>
+      </c>
+      <c r="AJ34">
+        <v>100</v>
+      </c>
+      <c r="AK34">
+        <v>100</v>
+      </c>
+      <c r="AL34">
+        <v>100</v>
+      </c>
+      <c r="AM34">
+        <v>100</v>
+      </c>
+      <c r="AN34">
+        <v>100</v>
+      </c>
+      <c r="AO34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>100</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
+      <c r="I35">
+        <v>100</v>
+      </c>
+      <c r="J35">
+        <v>100</v>
+      </c>
+      <c r="K35">
+        <v>10</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>10</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>10</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>10</v>
+      </c>
+      <c r="R35">
+        <v>10</v>
+      </c>
+      <c r="S35">
+        <v>10</v>
+      </c>
+      <c r="T35">
+        <v>20</v>
+      </c>
+      <c r="U35">
+        <v>20</v>
+      </c>
+      <c r="V35">
+        <v>20</v>
+      </c>
+      <c r="W35">
+        <v>10</v>
+      </c>
+      <c r="X35">
+        <v>10</v>
+      </c>
+      <c r="Y35">
+        <v>10</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>10</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>10</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>10</v>
+      </c>
+      <c r="AF35">
+        <v>100</v>
+      </c>
+      <c r="AG35">
+        <v>100</v>
+      </c>
+      <c r="AH35">
+        <v>100</v>
+      </c>
+      <c r="AI35">
+        <v>100</v>
+      </c>
+      <c r="AJ35">
+        <v>100</v>
+      </c>
+      <c r="AK35">
+        <v>100</v>
+      </c>
+      <c r="AL35">
+        <v>100</v>
+      </c>
+      <c r="AM35">
+        <v>100</v>
+      </c>
+      <c r="AN35">
+        <v>100</v>
+      </c>
+      <c r="AO35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+      <c r="H36">
+        <v>100</v>
+      </c>
+      <c r="I36">
+        <v>100</v>
+      </c>
+      <c r="J36">
+        <v>100</v>
+      </c>
+      <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>10</v>
+      </c>
+      <c r="AF36">
+        <v>100</v>
+      </c>
+      <c r="AG36">
+        <v>100</v>
+      </c>
+      <c r="AH36">
+        <v>100</v>
+      </c>
+      <c r="AI36">
+        <v>100</v>
+      </c>
+      <c r="AJ36">
+        <v>100</v>
+      </c>
+      <c r="AK36">
+        <v>100</v>
+      </c>
+      <c r="AL36">
+        <v>100</v>
+      </c>
+      <c r="AM36">
+        <v>100</v>
+      </c>
+      <c r="AN36">
+        <v>100</v>
+      </c>
+      <c r="AO36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>100</v>
+      </c>
+      <c r="B37">
+        <v>100</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+      <c r="H37">
+        <v>100</v>
+      </c>
+      <c r="I37">
+        <v>100</v>
+      </c>
+      <c r="J37">
+        <v>100</v>
+      </c>
+      <c r="K37">
+        <v>10</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>10</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>10</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>10</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>10</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>10</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>10</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>10</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>10</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>10</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>10</v>
+      </c>
+      <c r="AF37">
+        <v>100</v>
+      </c>
+      <c r="AG37">
+        <v>100</v>
+      </c>
+      <c r="AH37">
+        <v>100</v>
+      </c>
+      <c r="AI37">
+        <v>100</v>
+      </c>
+      <c r="AJ37">
+        <v>100</v>
+      </c>
+      <c r="AK37">
+        <v>100</v>
+      </c>
+      <c r="AL37">
+        <v>100</v>
+      </c>
+      <c r="AM37">
+        <v>100</v>
+      </c>
+      <c r="AN37">
+        <v>100</v>
+      </c>
+      <c r="AO37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>100</v>
+      </c>
+      <c r="B38">
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="E38">
+        <v>100</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <v>100</v>
+      </c>
+      <c r="I38">
+        <v>100</v>
+      </c>
+      <c r="J38">
+        <v>100</v>
+      </c>
+      <c r="K38">
+        <v>10</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>10</v>
+      </c>
+      <c r="AF38">
+        <v>100</v>
+      </c>
+      <c r="AG38">
+        <v>100</v>
+      </c>
+      <c r="AH38">
+        <v>100</v>
+      </c>
+      <c r="AI38">
+        <v>100</v>
+      </c>
+      <c r="AJ38">
+        <v>100</v>
+      </c>
+      <c r="AK38">
+        <v>100</v>
+      </c>
+      <c r="AL38">
+        <v>100</v>
+      </c>
+      <c r="AM38">
+        <v>100</v>
+      </c>
+      <c r="AN38">
+        <v>100</v>
+      </c>
+      <c r="AO38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>100</v>
+      </c>
+      <c r="B39">
+        <v>100</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>100</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+      <c r="H39">
+        <v>100</v>
+      </c>
+      <c r="I39">
+        <v>100</v>
+      </c>
+      <c r="J39">
+        <v>100</v>
+      </c>
+      <c r="K39">
+        <v>10</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>10</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>10</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>10</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>10</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>10</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>10</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>10</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>10</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>10</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>10</v>
+      </c>
+      <c r="AF39">
+        <v>100</v>
+      </c>
+      <c r="AG39">
+        <v>100</v>
+      </c>
+      <c r="AH39">
+        <v>100</v>
+      </c>
+      <c r="AI39">
+        <v>100</v>
+      </c>
+      <c r="AJ39">
+        <v>100</v>
+      </c>
+      <c r="AK39">
+        <v>100</v>
+      </c>
+      <c r="AL39">
+        <v>100</v>
+      </c>
+      <c r="AM39">
+        <v>100</v>
+      </c>
+      <c r="AN39">
+        <v>100</v>
+      </c>
+      <c r="AO39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>100</v>
+      </c>
+      <c r="B40">
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <v>100</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <v>100</v>
+      </c>
+      <c r="I40">
+        <v>100</v>
+      </c>
+      <c r="J40">
+        <v>100</v>
+      </c>
+      <c r="K40">
+        <v>10</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>10</v>
+      </c>
+      <c r="AF40">
+        <v>100</v>
+      </c>
+      <c r="AG40">
+        <v>100</v>
+      </c>
+      <c r="AH40">
+        <v>100</v>
+      </c>
+      <c r="AI40">
+        <v>100</v>
+      </c>
+      <c r="AJ40">
+        <v>100</v>
+      </c>
+      <c r="AK40">
+        <v>100</v>
+      </c>
+      <c r="AL40">
+        <v>100</v>
+      </c>
+      <c r="AM40">
+        <v>100</v>
+      </c>
+      <c r="AN40">
+        <v>100</v>
+      </c>
+      <c r="AO40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>100</v>
+      </c>
+      <c r="B41">
+        <v>100</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="E41">
+        <v>100</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+      <c r="I41">
+        <v>100</v>
+      </c>
+      <c r="J41">
+        <v>100</v>
+      </c>
+      <c r="K41">
+        <v>10</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>10</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>10</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>10</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>10</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>10</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>10</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>10</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>10</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>10</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>10</v>
+      </c>
+      <c r="AF41">
+        <v>100</v>
+      </c>
+      <c r="AG41">
+        <v>100</v>
+      </c>
+      <c r="AH41">
+        <v>100</v>
+      </c>
+      <c r="AI41">
+        <v>100</v>
+      </c>
+      <c r="AJ41">
+        <v>100</v>
+      </c>
+      <c r="AK41">
+        <v>100</v>
+      </c>
+      <c r="AL41">
+        <v>100</v>
+      </c>
+      <c r="AM41">
+        <v>100</v>
+      </c>
+      <c r="AN41">
+        <v>100</v>
+      </c>
+      <c r="AO41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>100</v>
+      </c>
+      <c r="B42">
+        <v>100</v>
+      </c>
+      <c r="C42">
+        <v>100</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42">
+        <v>100</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42">
+        <v>100</v>
+      </c>
+      <c r="I42">
+        <v>100</v>
+      </c>
+      <c r="J42">
+        <v>100</v>
+      </c>
+      <c r="K42">
+        <v>10</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>10</v>
+      </c>
+      <c r="AF42">
+        <v>100</v>
+      </c>
+      <c r="AG42">
+        <v>100</v>
+      </c>
+      <c r="AH42">
+        <v>100</v>
+      </c>
+      <c r="AI42">
+        <v>100</v>
+      </c>
+      <c r="AJ42">
+        <v>100</v>
+      </c>
+      <c r="AK42">
+        <v>100</v>
+      </c>
+      <c r="AL42">
+        <v>100</v>
+      </c>
+      <c r="AM42">
+        <v>100</v>
+      </c>
+      <c r="AN42">
+        <v>100</v>
+      </c>
+      <c r="AO42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>100</v>
+      </c>
+      <c r="B43">
+        <v>100</v>
+      </c>
+      <c r="C43">
+        <v>100</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
+      </c>
+      <c r="I43">
+        <v>100</v>
+      </c>
+      <c r="J43">
+        <v>100</v>
+      </c>
+      <c r="K43">
+        <v>10</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>10</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>10</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>10</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>10</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>10</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>10</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>10</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>10</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>10</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>10</v>
+      </c>
+      <c r="AF43">
+        <v>100</v>
+      </c>
+      <c r="AG43">
+        <v>100</v>
+      </c>
+      <c r="AH43">
+        <v>100</v>
+      </c>
+      <c r="AI43">
+        <v>100</v>
+      </c>
+      <c r="AJ43">
+        <v>100</v>
+      </c>
+      <c r="AK43">
+        <v>100</v>
+      </c>
+      <c r="AL43">
+        <v>100</v>
+      </c>
+      <c r="AM43">
+        <v>100</v>
+      </c>
+      <c r="AN43">
+        <v>100</v>
+      </c>
+      <c r="AO43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>100</v>
+      </c>
+      <c r="B44">
+        <v>100</v>
+      </c>
+      <c r="C44">
+        <v>100</v>
+      </c>
+      <c r="D44">
+        <v>100</v>
+      </c>
+      <c r="E44">
+        <v>100</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+      <c r="I44">
+        <v>100</v>
+      </c>
+      <c r="J44">
+        <v>100</v>
+      </c>
+      <c r="K44">
+        <v>10</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>10</v>
+      </c>
+      <c r="AF44">
+        <v>100</v>
+      </c>
+      <c r="AG44">
+        <v>100</v>
+      </c>
+      <c r="AH44">
+        <v>100</v>
+      </c>
+      <c r="AI44">
+        <v>100</v>
+      </c>
+      <c r="AJ44">
+        <v>100</v>
+      </c>
+      <c r="AK44">
+        <v>100</v>
+      </c>
+      <c r="AL44">
+        <v>100</v>
+      </c>
+      <c r="AM44">
+        <v>100</v>
+      </c>
+      <c r="AN44">
+        <v>100</v>
+      </c>
+      <c r="AO44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>100</v>
+      </c>
+      <c r="B45">
+        <v>100</v>
+      </c>
+      <c r="C45">
+        <v>100</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+      <c r="E45">
+        <v>100</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45">
+        <v>100</v>
+      </c>
+      <c r="I45">
+        <v>100</v>
+      </c>
+      <c r="J45">
+        <v>100</v>
+      </c>
+      <c r="K45">
+        <v>10</v>
+      </c>
+      <c r="L45">
+        <v>10</v>
+      </c>
+      <c r="M45">
+        <v>10</v>
+      </c>
+      <c r="N45">
+        <v>10</v>
+      </c>
+      <c r="O45">
+        <v>10</v>
+      </c>
+      <c r="P45">
+        <v>10</v>
+      </c>
+      <c r="Q45">
+        <v>10</v>
+      </c>
+      <c r="R45">
+        <v>10</v>
+      </c>
+      <c r="S45">
+        <v>95</v>
+      </c>
+      <c r="T45">
+        <v>95</v>
+      </c>
+      <c r="U45">
+        <v>95</v>
+      </c>
+      <c r="V45">
+        <v>95</v>
+      </c>
+      <c r="W45">
+        <v>95</v>
+      </c>
+      <c r="X45">
+        <v>10</v>
+      </c>
+      <c r="Y45">
+        <v>10</v>
+      </c>
+      <c r="Z45">
+        <v>10</v>
+      </c>
+      <c r="AA45">
+        <v>10</v>
+      </c>
+      <c r="AB45">
+        <v>10</v>
+      </c>
+      <c r="AC45">
+        <v>10</v>
+      </c>
+      <c r="AD45">
+        <v>10</v>
+      </c>
+      <c r="AE45">
+        <v>10</v>
+      </c>
+      <c r="AF45">
+        <v>100</v>
+      </c>
+      <c r="AG45">
+        <v>100</v>
+      </c>
+      <c r="AH45">
+        <v>100</v>
+      </c>
+      <c r="AI45">
+        <v>100</v>
+      </c>
+      <c r="AJ45">
+        <v>100</v>
+      </c>
+      <c r="AK45">
+        <v>100</v>
+      </c>
+      <c r="AL45">
+        <v>100</v>
+      </c>
+      <c r="AM45">
+        <v>100</v>
+      </c>
+      <c r="AN45">
+        <v>100</v>
+      </c>
+      <c r="AO45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>100</v>
+      </c>
+      <c r="B46">
+        <v>100</v>
+      </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="D46">
+        <v>100</v>
+      </c>
+      <c r="E46">
+        <v>100</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="H46">
+        <v>100</v>
+      </c>
+      <c r="I46">
+        <v>100</v>
+      </c>
+      <c r="J46">
+        <v>100</v>
+      </c>
+      <c r="K46">
+        <v>100</v>
+      </c>
+      <c r="L46">
+        <v>100</v>
+      </c>
+      <c r="M46">
+        <v>100</v>
+      </c>
+      <c r="N46">
+        <v>100</v>
+      </c>
+      <c r="O46">
+        <v>100</v>
+      </c>
+      <c r="P46">
+        <v>100</v>
+      </c>
+      <c r="Q46">
+        <v>100</v>
+      </c>
+      <c r="R46">
+        <v>10</v>
+      </c>
+      <c r="S46">
+        <v>99</v>
+      </c>
+      <c r="T46">
+        <v>99</v>
+      </c>
+      <c r="U46">
+        <v>99</v>
+      </c>
+      <c r="V46">
+        <v>99</v>
+      </c>
+      <c r="W46">
+        <v>99</v>
+      </c>
+      <c r="X46">
+        <v>10</v>
+      </c>
+      <c r="Y46">
+        <v>100</v>
+      </c>
+      <c r="Z46">
+        <v>100</v>
+      </c>
+      <c r="AA46">
+        <v>100</v>
+      </c>
+      <c r="AB46">
+        <v>100</v>
+      </c>
+      <c r="AC46">
+        <v>100</v>
+      </c>
+      <c r="AD46">
+        <v>100</v>
+      </c>
+      <c r="AE46">
+        <v>100</v>
+      </c>
+      <c r="AF46">
+        <v>100</v>
+      </c>
+      <c r="AG46">
+        <v>100</v>
+      </c>
+      <c r="AH46">
+        <v>100</v>
+      </c>
+      <c r="AI46">
+        <v>100</v>
+      </c>
+      <c r="AJ46">
+        <v>100</v>
+      </c>
+      <c r="AK46">
+        <v>100</v>
+      </c>
+      <c r="AL46">
+        <v>100</v>
+      </c>
+      <c r="AM46">
+        <v>100</v>
+      </c>
+      <c r="AN46">
+        <v>100</v>
+      </c>
+      <c r="AO46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>100</v>
+      </c>
+      <c r="B47">
+        <v>100</v>
+      </c>
+      <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
+      </c>
+      <c r="E47">
+        <v>100</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+      <c r="H47">
+        <v>100</v>
+      </c>
+      <c r="I47">
+        <v>100</v>
+      </c>
+      <c r="J47">
+        <v>100</v>
+      </c>
+      <c r="K47">
+        <v>100</v>
+      </c>
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="M47">
+        <v>100</v>
+      </c>
+      <c r="N47">
+        <v>100</v>
+      </c>
+      <c r="O47">
+        <v>100</v>
+      </c>
+      <c r="P47">
+        <v>100</v>
+      </c>
+      <c r="Q47">
+        <v>100</v>
+      </c>
+      <c r="R47">
+        <v>10</v>
+      </c>
+      <c r="S47">
+        <v>99</v>
+      </c>
+      <c r="T47">
+        <v>93</v>
+      </c>
+      <c r="U47">
+        <v>99</v>
+      </c>
+      <c r="V47">
+        <v>94</v>
+      </c>
+      <c r="W47">
+        <v>99</v>
+      </c>
+      <c r="X47">
+        <v>10</v>
+      </c>
+      <c r="Y47">
+        <v>100</v>
+      </c>
+      <c r="Z47">
+        <v>100</v>
+      </c>
+      <c r="AA47">
+        <v>100</v>
+      </c>
+      <c r="AB47">
+        <v>100</v>
+      </c>
+      <c r="AC47">
+        <v>100</v>
+      </c>
+      <c r="AD47">
+        <v>100</v>
+      </c>
+      <c r="AE47">
+        <v>100</v>
+      </c>
+      <c r="AF47">
+        <v>100</v>
+      </c>
+      <c r="AG47">
+        <v>100</v>
+      </c>
+      <c r="AH47">
+        <v>100</v>
+      </c>
+      <c r="AI47">
+        <v>100</v>
+      </c>
+      <c r="AJ47">
+        <v>100</v>
+      </c>
+      <c r="AK47">
+        <v>100</v>
+      </c>
+      <c r="AL47">
+        <v>100</v>
+      </c>
+      <c r="AM47">
+        <v>100</v>
+      </c>
+      <c r="AN47">
+        <v>100</v>
+      </c>
+      <c r="AO47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>100</v>
+      </c>
+      <c r="B48">
+        <v>100</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+      <c r="E48">
+        <v>100</v>
+      </c>
+      <c r="F48">
+        <v>100</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+      <c r="H48">
+        <v>100</v>
+      </c>
+      <c r="I48">
+        <v>100</v>
+      </c>
+      <c r="J48">
+        <v>100</v>
+      </c>
+      <c r="K48">
+        <v>100</v>
+      </c>
+      <c r="L48">
+        <v>100</v>
+      </c>
+      <c r="M48">
+        <v>100</v>
+      </c>
+      <c r="N48">
+        <v>100</v>
+      </c>
+      <c r="O48">
+        <v>100</v>
+      </c>
+      <c r="P48">
+        <v>100</v>
+      </c>
+      <c r="Q48">
+        <v>100</v>
+      </c>
+      <c r="R48">
+        <v>10</v>
+      </c>
+      <c r="S48">
+        <v>99</v>
+      </c>
+      <c r="T48">
+        <v>99</v>
+      </c>
+      <c r="U48">
+        <v>99</v>
+      </c>
+      <c r="V48">
+        <v>99</v>
+      </c>
+      <c r="W48">
+        <v>99</v>
+      </c>
+      <c r="X48">
+        <v>10</v>
+      </c>
+      <c r="Y48">
+        <v>100</v>
+      </c>
+      <c r="Z48">
+        <v>100</v>
+      </c>
+      <c r="AA48">
+        <v>100</v>
+      </c>
+      <c r="AB48">
+        <v>100</v>
+      </c>
+      <c r="AC48">
+        <v>100</v>
+      </c>
+      <c r="AD48">
+        <v>100</v>
+      </c>
+      <c r="AE48">
+        <v>100</v>
+      </c>
+      <c r="AF48">
+        <v>100</v>
+      </c>
+      <c r="AG48">
+        <v>100</v>
+      </c>
+      <c r="AH48">
+        <v>100</v>
+      </c>
+      <c r="AI48">
+        <v>100</v>
+      </c>
+      <c r="AJ48">
+        <v>100</v>
+      </c>
+      <c r="AK48">
+        <v>100</v>
+      </c>
+      <c r="AL48">
+        <v>100</v>
+      </c>
+      <c r="AM48">
+        <v>100</v>
+      </c>
+      <c r="AN48">
+        <v>100</v>
+      </c>
+      <c r="AO48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>100</v>
+      </c>
+      <c r="B49">
+        <v>100</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+      <c r="D49">
+        <v>100</v>
+      </c>
+      <c r="E49">
+        <v>100</v>
+      </c>
+      <c r="F49">
+        <v>100</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+      <c r="H49">
+        <v>100</v>
+      </c>
+      <c r="I49">
+        <v>100</v>
+      </c>
+      <c r="J49">
+        <v>100</v>
+      </c>
+      <c r="K49">
+        <v>100</v>
+      </c>
+      <c r="L49">
+        <v>100</v>
+      </c>
+      <c r="M49">
+        <v>100</v>
+      </c>
+      <c r="N49">
+        <v>100</v>
+      </c>
+      <c r="O49">
+        <v>100</v>
+      </c>
+      <c r="P49">
+        <v>100</v>
+      </c>
+      <c r="Q49">
+        <v>100</v>
+      </c>
+      <c r="R49">
+        <v>10</v>
+      </c>
+      <c r="S49">
+        <v>10</v>
+      </c>
+      <c r="T49">
+        <v>10</v>
+      </c>
+      <c r="U49">
+        <v>10</v>
+      </c>
+      <c r="V49">
+        <v>10</v>
+      </c>
+      <c r="W49">
+        <v>10</v>
+      </c>
+      <c r="X49">
+        <v>10</v>
+      </c>
+      <c r="Y49">
+        <v>100</v>
+      </c>
+      <c r="Z49">
+        <v>100</v>
+      </c>
+      <c r="AA49">
+        <v>100</v>
+      </c>
+      <c r="AB49">
+        <v>100</v>
+      </c>
+      <c r="AC49">
+        <v>100</v>
+      </c>
+      <c r="AD49">
+        <v>100</v>
+      </c>
+      <c r="AE49">
+        <v>100</v>
+      </c>
+      <c r="AF49">
+        <v>100</v>
+      </c>
+      <c r="AG49">
+        <v>100</v>
+      </c>
+      <c r="AH49">
+        <v>100</v>
+      </c>
+      <c r="AI49">
+        <v>100</v>
+      </c>
+      <c r="AJ49">
+        <v>100</v>
+      </c>
+      <c r="AK49">
+        <v>100</v>
+      </c>
+      <c r="AL49">
+        <v>100</v>
+      </c>
+      <c r="AM49">
+        <v>100</v>
+      </c>
+      <c r="AN49">
+        <v>100</v>
+      </c>
+      <c r="AO49">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+      <formula>AND(A1&gt;=90, A1&lt;100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+      <formula>A1=100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:Q8 Y1:AO8 A1:J16 AP1:XFD49 R2:X8 K9:AE15 AF9:AO16 K16:P16 Q16:AE34 A17:P23 AE17:AO33 A24:K26 L24:P34 K27:K34 A27:J49 AF34:AO49 K35:AE45 R46:AE48 K46:Q49 R49:X49 Y49:AE1048576 A50:X1048576 AF50:XFD1048576">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>A1=20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>A1=11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>A1=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>A1=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/Resources/StageExcel.xlsx
+++ b/Assets/Resources/StageExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotat\OneDrive\デスクトップ\GCP\DecoBom\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45917671-245F-4E4F-9EFD-DBC4C6697E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3DB4F9-3A28-4B76-AC52-CE1DA0ABB6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1AEF912E-AD76-439A-9847-D359AAF86FF7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1AEF912E-AD76-439A-9847-D359AAF86FF7}"/>
   </bookViews>
   <sheets>
     <sheet name="stage1" sheetId="3" r:id="rId1"/>
@@ -85,7 +85,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -131,6 +131,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
@@ -139,6 +160,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -172,6 +200,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -502,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B4B7A3-2A67-49C0-8CF3-3D0110D1C797}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="33" workbookViewId="0">
-      <selection activeCell="AD48" sqref="AD48"/>
+    <sheetView topLeftCell="A2" zoomScale="77" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1512,25 +1545,25 @@
         <v>10</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O16">
         <v>10</v>
@@ -1577,25 +1610,25 @@
         <v>10</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O17">
         <v>10</v>
@@ -1642,25 +1675,25 @@
         <v>10</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O18">
         <v>10</v>
@@ -1707,25 +1740,25 @@
         <v>10</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O19">
         <v>10</v>
@@ -1772,25 +1805,25 @@
         <v>10</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O20">
         <v>10</v>
@@ -1837,25 +1870,25 @@
         <v>10</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O21">
         <v>10</v>
@@ -1902,25 +1935,25 @@
         <v>10</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O22">
         <v>10</v>
@@ -1967,25 +2000,25 @@
         <v>10</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O23">
         <v>10</v>
@@ -2035,19 +2068,19 @@
         <v>20</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N24">
         <v>20</v>
@@ -2100,19 +2133,19 @@
         <v>20</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N25">
         <v>20</v>
@@ -2165,19 +2198,19 @@
         <v>20</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N26">
         <v>20</v>
@@ -2227,25 +2260,25 @@
         <v>10</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O27">
         <v>10</v>
@@ -2292,25 +2325,25 @@
         <v>10</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O28">
         <v>10</v>
@@ -2357,25 +2390,25 @@
         <v>10</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O29">
         <v>10</v>
@@ -2422,25 +2455,25 @@
         <v>10</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O30">
         <v>10</v>
@@ -2487,25 +2520,25 @@
         <v>10</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O31">
         <v>10</v>
@@ -2552,25 +2585,25 @@
         <v>10</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O32">
         <v>10</v>
@@ -2617,25 +2650,25 @@
         <v>10</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O33">
         <v>10</v>
@@ -2682,25 +2715,25 @@
         <v>10</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O34">
         <v>10</v>
@@ -3702,24 +3735,27 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:G8 O1:U8 V1:XFD49 H2:N8 A9:U49 A50:XFD1048576">
-    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="4" stopIfTrue="1">
       <formula>A1=20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
       <formula>A1=11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
       <formula>A1=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="7" stopIfTrue="1">
       <formula>A1=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>A1=80</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>AND(A1&gt;=90, A1&lt;100)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
       <formula>A1=100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3731,8 +3767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA832E2E-F317-49D4-B89F-5814654F6E87}">
   <dimension ref="A1:AO49"/>
   <sheetViews>
-    <sheetView zoomScale="33" workbookViewId="0">
-      <selection activeCell="AS25" sqref="AS25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="66" workbookViewId="0">
+      <selection activeCell="AL25" sqref="AL25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5670,25 +5706,25 @@
         <v>10</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y16">
         <v>10</v>
@@ -5795,25 +5831,25 @@
         <v>10</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y17">
         <v>10</v>
@@ -5920,25 +5956,25 @@
         <v>10</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y18">
         <v>10</v>
@@ -6045,25 +6081,25 @@
         <v>10</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y19">
         <v>10</v>
@@ -6170,25 +6206,25 @@
         <v>10</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y20">
         <v>10</v>
@@ -6295,25 +6331,25 @@
         <v>10</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y21">
         <v>10</v>
@@ -6420,25 +6456,25 @@
         <v>10</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y22">
         <v>10</v>
@@ -6545,25 +6581,25 @@
         <v>10</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y23">
         <v>10</v>
@@ -6673,19 +6709,19 @@
         <v>20</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="X24">
         <v>20</v>
@@ -6753,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -6798,19 +6834,19 @@
         <v>20</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="X25">
         <v>20</v>
@@ -6855,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AM25">
         <v>0</v>
@@ -6923,19 +6959,19 @@
         <v>20</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="X26">
         <v>20</v>
@@ -7045,25 +7081,25 @@
         <v>10</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y27">
         <v>10</v>
@@ -7170,25 +7206,25 @@
         <v>10</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y28">
         <v>10</v>
@@ -7295,25 +7331,25 @@
         <v>10</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y29">
         <v>10</v>
@@ -7420,25 +7456,25 @@
         <v>10</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y30">
         <v>10</v>
@@ -7545,25 +7581,25 @@
         <v>10</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y31">
         <v>10</v>
@@ -7670,25 +7706,25 @@
         <v>10</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y32">
         <v>10</v>
@@ -7795,25 +7831,25 @@
         <v>10</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y33">
         <v>10</v>
@@ -7920,25 +7956,25 @@
         <v>10</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y34">
         <v>10</v>
@@ -9870,24 +9906,33 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>A1=72</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>A1=71</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>A1=80</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>AND(A1&gt;=90, A1&lt;100)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>A1=100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:Q8 Y1:AO8 A1:J16 AP1:XFD49 R2:X8 K9:AE15 AF9:AO16 K16:P16 Q16:AE34 A17:P23 AE17:AO33 A24:K26 L24:P34 K27:K34 A27:J49 AF34:AO49 K35:AE45 R46:AE48 K46:Q49 R49:X49 Y49:AE1048576 A50:X1048576 AF50:XFD1048576">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
       <formula>A1=20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
       <formula>A1=11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
       <formula>A1=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
       <formula>A1=0</formula>
     </cfRule>
   </conditionalFormatting>
